--- a/data/20220318_rwgs_250_dataset.xlsx
+++ b/data/20220318_rwgs_250_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinyamine/data_mac/ML/rwgs_ML_paper/CSV_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smine\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AA60C9-DCFD-A047-8BDF-475D6C5DA8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B59160-59D3-43FC-A8F4-81EBB6A0287B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_data" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,10 +264,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -608,13 +608,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="N279" sqref="N279"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -11465,16 +11465,16 @@
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
       <c r="L279" s="2">
-        <v>2.69</v>
+        <v>2.94</v>
       </c>
       <c r="M279" s="2">
-        <v>2.25</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="N279" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A301" s="2">
         <v>300</v>
       </c>
